--- a/meta/en/15-1-1-1.xlsx
+++ b/meta/en/15-1-1-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>1. Indicator information</t>
   </si>
@@ -103,74 +103,61 @@
     <t>15.1.1.1 Forest area as a proportion of total area of the country</t>
   </si>
   <si>
-    <t>SAEPF, Department of Forest Ecosystem Development, State Institution “</t>
-  </si>
-  <si>
-    <t>Kyrgyz Forest Management” Zhumaev Nurlan Kadyrovich Director of the Department of Forest Ecosystem Development, Chukumbaev Sabyr Zholochievich, Director of the state institution “Kyrgyz Forest Management”"</t>
-  </si>
-  <si>
-    <t>996 (312) 54-88-42, 996 (312) 54-03-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> www.ecology.gov.kg</t>
-  </si>
-  <si>
-    <t>The indicator reflects the relative prevalence of forests in the country. The indicator characterizes the area of forests, its ratio to the area of the country, as well as the percentage of the area covered by forests. Monitoring the change in the forested area will allow us to assess the degree of preservation of forest ecosystems.</t>
-  </si>
-  <si>
-    <t>Forest – woody and shrubby vegetation growing on the lands of the forest fund and other categories of land fund with a minimum area of 0.2 hectares, a minimum width of 25 m, a minimum crown density of 10%, a minimum fullness of 0.1, a minimum height of 1.9 m (shrubs - 0.5 m).</t>
-  </si>
-  <si>
-    <t>Monitoring the change in the forested area will allow us to assess the degree of preservation of forest ecosystems. The indicator provides an assessment of the state of forests or forested lands in the country, as well as shows trends in their use. Forests are the only natural sink of carbon dioxide in the atmosphere, the excess of which leads to global warming.                                                                                          The positive dynamics of forest cover in the country shows a) trends in the conservation and sustainable use of forests b) increasing the potential of the territory to mitigate the negative effects of climate change. This trend can be considered as a positive trend in terms of achieving sustainable development.</t>
-  </si>
-  <si>
-    <t>National forest inventory, accounting of the forest fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-"The indicator is formed by the SAEPF on the basis of data from the national forest inventory, approved by the decree of the Government of the Kyrgyz Republic. For a one–time determination of the quantitative and qualitative characteristics of the forest fund and the changes taking place in it, forest fund accounting is carried out periodically (every five years) - one of the activities of the forest accounting system.
-Data collection is also carried out by the State Registration Service of the Kyrgyz Republic and submitted to the NSC of the Kyrgyz Republic. The data sources are the "Report on the availability and distribution of land in the Kyrgyz Republic", as well as special reporting forms of the National Statistical Committee."</t>
-  </si>
-  <si>
-    <t>The area covered by forest as a percentage of the total area of the country
-The proportion of the area covered by forest is calculated according to the following formula:
-LT = PP / OPR * 100
-where,
-LT - forested area, as a percentage;
-PL is the area covered by forest, based on the state inventory
-ODA is the total area of the republic.</t>
-  </si>
-  <si>
-    <t>The data of the National Forest Inventory of the Kyrgyz Republic were approved by the Decree of the Government of the Kyrgyz Republic dated July 26, 11, No. 407. In 2019, the second national forest inventory of the Kyrgyz Republic will begin.</t>
-  </si>
-  <si>
-    <t>National reports on the state of the environment of the Kyrgyz Republic, yearbook "Kyrgyzstan in figures" (data for the last 5 years), statistical collection "Environment in the Kyrgyz Republic", statistical yearbook of the Kyrgyz Republic</t>
-  </si>
-  <si>
-    <t>Methodologies of the international FAO program "Global Forest Resources Assessment"</t>
-  </si>
-  <si>
-    <t>National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+    <t>Forest Service (Interregional Forest Management Department of the Forest Service under the Ministry of Emergency Situations of the Kyrgyz Republic)</t>
+  </si>
+  <si>
+    <t>Kadyrov Mirbek Bekbosunovich</t>
+  </si>
+  <si>
+    <t>e-mail: ulou@forest.gov.kg</t>
+  </si>
+  <si>
+    <t>+996 (501) 011 380, +996(700)393844, +996(703)444003</t>
+  </si>
+  <si>
+    <t>tel. 59-01-56, e-mail: ulou@forest.gov.kg</t>
+  </si>
+  <si>
+    <t>The accounting of the forest fund in 2023 was carried out in accordance with the unified accounting procedure for the forest fund approved by Resolution No. 111 of the Government of the Kyrgyz Republic dated March 11, 2015.</t>
+  </si>
+  <si>
+    <t>Accounting of the forest fund is one of the activities of the forest accounting system and is carried out periodically every five years to simultaneously determine the quantitative and qualitative characteristics of the forest fund and the changes taking place in it.</t>
+  </si>
+  <si>
+    <t>The current Accounting of the forest fund and the previous ones were carried out according to Form No. 1 "Distribution of the areas of the state forest fund or specially protected natural territories by land" and Form No. 2 "Distribution of the area of forests and timber reserves by prevailing species and age groups".</t>
+  </si>
+  <si>
+    <t>The sources of Accounting are primary documentation of forestry enterprises, reserves and natural parks, materials of forest management, national forest inventory and Management of Forest Ecosystem Development and strategic planning.</t>
+  </si>
+  <si>
+    <t>Training seminars were held on the preparation of accounting materials for the forest fund in 2023 for all forestry enterprises, reserves and natural parks of the Kyrgyz Republic, their reports were adopted, a database was created, an analysis of the state of forests and forestry at the level of forestry enterprises, natural parks, reserves and summary data on the region was carried out.</t>
+  </si>
+  <si>
+    <t>The assessment of the state of the forest and the activities of forest facilities is based on 12 criteria – changes in the lands of the GLF and protected areas and outside the territory of the GLF and protected areas over the inter-accounting period, breed composition, age structure, stock and growth, planting of forest crops, the state of forest crops, nursery farming, transfer to a forested area, logging, unauthorized logging, types of forests and forest management.</t>
+  </si>
+  <si>
+    <t>The data is available</t>
+  </si>
+  <si>
+    <t>By region.</t>
+  </si>
+  <si>
+    <t>Respond</t>
+  </si>
+  <si>
+    <t>ulou@forest.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,38 +232,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -586,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +586,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -615,7 +594,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -623,7 +602,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -637,7 +616,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -645,7 +624,7 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -653,14 +632,16 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>31</v>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -668,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,28 +658,28 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -712,15 +693,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>37</v>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -729,21 +710,19 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -769,22 +748,24 @@
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
